--- a/Completed Projects/Food Court North Walk/327 Quotation for swimming pool work Food court hydery.xlsx
+++ b/Completed Projects/Food Court North Walk/327 Quotation for swimming pool work Food court hydery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Food Court North Walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108DFCC9-832B-4300-BF4E-CBC6E96FB065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F458E0F-4A49-4F33-9879-752C9FCAAD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$9:$H$30</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Table 1'!$12:$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Table 1'!$15:$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -33,16 +33,6 @@
         <family val="1"/>
       </rPr>
       <t>Date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Quotation #</t>
     </r>
   </si>
   <si>
@@ -212,17 +202,63 @@
     <t>SST 15%</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16.5"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>Rft</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Digging / Dismantle of old swimming pool pipes and fittings and checked near swimming pool.</t>
+  </si>
+  <si>
+    <t>Supply and installation of SCH-40 UPVC Pipe with related fittings such as tee, elbow.</t>
+  </si>
+  <si>
+    <t>a) 02" Dia</t>
+  </si>
+  <si>
+    <t>b) 1-1/2" Dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation of union ball valve </t>
+  </si>
+  <si>
+    <t>Installation of Owner supplied swimming pool pump / filter.</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Installation of Jakuzi water pressure pump with related fittings.</t>
+  </si>
+  <si>
+    <t>Supply and Installation of air pump for Jakuzi.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Supply and Installation of media sand for swimming pool filtration system.</t>
+  </si>
+  <si>
+    <t>Supply and Installation of Jakuzi Nozels.</t>
+  </si>
+  <si>
+    <t>Supply and Installation of Jakuzi drain greating.</t>
+  </si>
+  <si>
+    <t>Installation of Jakuzi heater with supply of related fittings</t>
+  </si>
+  <si>
+    <t>Attn: Mr. Hussain Bharmal</t>
+  </si>
+  <si>
+    <t>Bill #</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -243,61 +279,7 @@
     </r>
   </si>
   <si>
-    <t>Nos</t>
-  </si>
-  <si>
-    <t>Rft</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Digging / Dismantle of old swimming pool pipes and fittings and checked near swimming pool.</t>
-  </si>
-  <si>
-    <t>Supply and installation of SCH-40 UPVC Pipe with related fittings such as tee, elbow.</t>
-  </si>
-  <si>
-    <t>a) 02" Dia</t>
-  </si>
-  <si>
-    <t>b) 1-1/2" Dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation of union ball valve </t>
-  </si>
-  <si>
-    <t>Installation of Owner supplied swimming pool pump / filter.</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Installation of Jakuzi water pressure pump with related fittings.</t>
-  </si>
-  <si>
-    <t>Supply and Installation of air pump for Jakuzi.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Supply and Installation of media sand for swimming pool filtration system.</t>
-  </si>
-  <si>
-    <t>Supply and Installation of Jakuzi Nozels.</t>
-  </si>
-  <si>
-    <t>Supply and Installation of Jakuzi drain greating.</t>
-  </si>
-  <si>
-    <t>Installation of Jakuzi heater with supply of related fittings</t>
-  </si>
-  <si>
-    <t>Attn: Mr. Hussain Bharmal</t>
-  </si>
-  <si>
-    <t>Quotation for Swimming Pool work at The North Walk Shopping mall.</t>
+    <t>Bill for Swimming Pool work at Gym Area The North Walk Shopping mall.</t>
   </si>
 </sst>
 </file>
@@ -307,9 +289,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -378,13 +360,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="16.5"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -404,7 +379,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -539,9 +514,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -587,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -599,82 +574,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,10 +665,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>218833</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>234708</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="642937" cy="466636"/>
     <xdr:pic>
@@ -732,7 +698,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="218833" y="18211800"/>
+          <a:off x="11512308" y="8524875"/>
           <a:ext cx="642937" cy="466636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -742,6 +708,161 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163196</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>628651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0832F60C-59C2-4AFE-BFC6-6CC52CA0EE63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9840596" y="628651"/>
+          <a:ext cx="4742179" cy="628649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715B927C-7F98-4230-A710-4FC250B54B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8982075" y="428626"/>
+          <a:ext cx="952501" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1032,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G30" sqref="A9:H30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,590 +1172,635 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="6" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>45530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G4" s="6" t="s">
+      <c r="H6" s="2">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G5" s="6" t="s">
+      <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="24">
+        <f>E16*D16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f>F16*D16</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24">
+        <f t="shared" ref="G17:G29" si="0">E17*D17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" ref="H17:H29" si="1">F17*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
-        <v>10000</v>
-      </c>
-      <c r="G13" s="34">
-        <f>E13*D13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <f>F13*D13</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="C18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <v>506</v>
+      </c>
+      <c r="E18" s="24">
+        <v>680</v>
+      </c>
+      <c r="F18" s="24">
+        <v>150</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="0"/>
+        <v>344080</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="1"/>
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34">
-        <f t="shared" ref="G14:G26" si="0">E14*D14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <f t="shared" ref="H14:H26" si="1">F14*D14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="31" t="s">
+      <c r="C19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>159</v>
+      </c>
+      <c r="E19" s="24">
+        <v>550</v>
+      </c>
+      <c r="F19" s="24">
+        <v>150</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="0"/>
+        <v>87450</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="1"/>
+        <v>23850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>500</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="34">
+      <c r="C20" s="27"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H20" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="31" t="s">
+    <row r="21" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8</v>
+      </c>
+      <c r="E21" s="24">
+        <v>19000</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="0"/>
+        <v>152000</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="24">
+        <v>17000</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="0"/>
+        <v>68000</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>4</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4">
-        <v>160</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="C23" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4">
-        <v>8</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>4</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E23" s="25">
         <v>5000</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F23" s="25">
         <v>15000</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G23" s="24">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H23" s="24">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+    <row r="24" spans="1:8" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
         <v>5</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E24" s="22">
         <v>5000</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F24" s="23">
         <v>10000</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G24" s="24">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H24" s="24">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+    <row r="25" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E25" s="22">
         <v>57000</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F25" s="23">
         <v>5000</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G25" s="24">
         <f t="shared" si="0"/>
         <v>57000</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H25" s="24">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+    <row r="26" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
         <v>7</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E26" s="22">
         <v>18000</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F26" s="23">
         <v>10000</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G26" s="24">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H26" s="24">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+    <row r="27" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
         <v>8</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4">
         <v>12</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E27" s="22">
         <v>7000</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F27" s="23">
         <v>1500</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G27" s="24">
         <f t="shared" si="0"/>
         <v>84000</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H27" s="24">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+    <row r="28" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
         <v>9</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E28" s="22">
         <v>5000</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F28" s="23">
         <v>1000</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G28" s="24">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H28" s="24">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+    <row r="29" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
         <v>10</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E29" s="22">
         <v>8000</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F29" s="23">
         <v>3000</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G29" s="24">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H29" s="24">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="28">
-        <f>SUM(G13:G26)</f>
-        <v>182000</v>
-      </c>
-      <c r="H27" s="28">
-        <f>SUM(H13:H26)</f>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="12">
-        <f>H27*15%</f>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="12">
-        <f>G28+G27</f>
-        <v>182000</v>
-      </c>
-      <c r="H29" s="12">
-        <f>H28+H27</f>
-        <v>82800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="9" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="11"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="19">
+        <f>SUM(G16:G29)</f>
+        <v>833530</v>
+      </c>
+      <c r="H30" s="19">
+        <f>SUM(H16:H29)</f>
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="19">
-        <f>H29+G29</f>
-        <v>264800</v>
-      </c>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="1:8" ht="70.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12">
+        <f>H30*15%</f>
+        <v>28462.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="12">
+        <f>G31+G30</f>
+        <v>833530</v>
+      </c>
+      <c r="H32" s="12">
+        <f>H31+H30</f>
+        <v>218212.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="9" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34">
+        <f>H32+G32</f>
+        <v>1051742.5</v>
+      </c>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8" ht="70.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
+  <mergeCells count="9">
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>